--- a/Modelo/Xu/HIPPO/of/No Modificables/HIPPO_Results.xlsx
+++ b/Modelo/Xu/HIPPO/of/No Modificables/HIPPO_Results.xlsx
@@ -13,7 +13,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>Fobj</t>
+  </si>
+  <si>
+    <t>CCc</t>
+  </si>
+  <si>
+    <t>Akaike</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>I955</t>
+  </si>
   <si>
     <t>FFF</t>
   </si>
@@ -54,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,13 +84,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
@@ -93,25 +116,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -119,19 +142,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>530.47434734995318</v>
+        <v>64.382306469081854</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>68.38599980326245</v>
+        <v>45.360941300678178</v>
       </c>
       <c r="E2" s="0">
-        <v>48.447254129171974</v>
+        <v>17.794022824439281</v>
       </c>
       <c r="F2" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
@@ -142,19 +165,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>530.47434646059708</v>
+        <v>64.379837847945737</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>63.330444224235478</v>
+        <v>38.860404486133916</v>
       </c>
       <c r="E3" s="0">
-        <v>45.808196736031277</v>
+        <v>15.154789164742873</v>
       </c>
       <c r="F3" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="0">
         <v>1</v>
@@ -165,19 +188,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>530.47434646059708</v>
+        <v>64.39201173479546</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>63.330444224235478</v>
+        <v>38.863051561825635</v>
       </c>
       <c r="E4" s="0">
-        <v>45.808196736031277</v>
+        <v>15.155658728089282</v>
       </c>
       <c r="F4" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" s="0">
         <v>1</v>
@@ -188,22 +211,275 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>530.47434745621342</v>
+        <v>64.381446410711305</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>59.285999806066812</v>
+        <v>38.860754278835174</v>
       </c>
       <c r="E5" s="0">
-        <v>43.169139477531473</v>
+        <v>15.154904062083268</v>
       </c>
       <c r="F5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>64.389785131571344</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>38.862567449227434</v>
+      </c>
+      <c r="E6" s="0">
+        <v>15.155499685001843</v>
+      </c>
+      <c r="F6" s="0">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>64.38231969537587</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>33.805388621193821</v>
+      </c>
+      <c r="E7" s="0">
+        <v>12.515909109944051</v>
+      </c>
+      <c r="F7" s="0">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>64.382231922751259</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>33.805369534935551</v>
+      </c>
+      <c r="E8" s="0">
+        <v>12.515902840470867</v>
+      </c>
+      <c r="F8" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>64.382367217000379</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>33.805398954814926</v>
+      </c>
+      <c r="E9" s="0">
+        <v>12.515912504345803</v>
+      </c>
+      <c r="F9" s="0">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>64.380825713067551</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>33.805063749472936</v>
+      </c>
+      <c r="E10" s="0">
+        <v>12.515802396922027</v>
+      </c>
+      <c r="F10" s="0">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>64.384667031254025</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>33.805871368154399</v>
+      </c>
+      <c r="E11" s="0">
+        <v>12.516067685990016</v>
+      </c>
+      <c r="F11" s="0">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>64.379163210515529</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>33.804702223568441</v>
+      </c>
+      <c r="E12" s="0">
+        <v>12.515683646739742</v>
+      </c>
+      <c r="F12" s="0">
+        <v>5</v>
+      </c>
+      <c r="G12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>64.382231715817497</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>29.760925045493082</v>
+      </c>
+      <c r="E13" s="0">
+        <v>9.8768454960746226</v>
+      </c>
+      <c r="F13" s="0">
+        <v>5</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>64.380641828101801</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>29.760579318073241</v>
+      </c>
+      <c r="E14" s="0">
+        <v>9.8767319326663596</v>
+      </c>
+      <c r="F14" s="0">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>64.382233188650432</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>29.760925365762517</v>
+      </c>
+      <c r="E15" s="0">
+        <v>9.8768456012769761</v>
+      </c>
+      <c r="F15" s="0">
+        <v>4</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>64.380666292572982</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>29.760584638034675</v>
+      </c>
+      <c r="E16" s="0">
+        <v>9.8767336801285879</v>
+      </c>
+      <c r="F16" s="0">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
